--- a/biology/Botanique/Appellation_régionale_(Bourgogne)/Appellation_régionale_(Bourgogne).xlsx
+++ b/biology/Botanique/Appellation_régionale_(Bourgogne)/Appellation_régionale_(Bourgogne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appellation_r%C3%A9gionale_(Bourgogne)</t>
+          <t>Appellation_régionale_(Bourgogne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une appellation régionale désigne dans le vignoble de Bourgogne un vin d'appellation d'origine contrôlée dont l'aire de production regroupe tous les villages viticoles des départements de l'Yonne (55 communes), de la Côte-d'Or (91 communes), de Saône-et-Loire (154 communes) et du Rhône (85 communes) ; on peut réunir à ces vins ceux dont l'aire d'appellation couvre une seule sous-région. Cette catégorie est en quatrième et dernière position de la classification des quatre catégories bourguignonnes suivantes :
 appellations grands crus ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Appellation_r%C3%A9gionale_(Bourgogne)</t>
+          <t>Appellation_régionale_(Bourgogne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Les catégories d'AOC en Bourgogne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins de Bourgogne se regroupent en quatre grandes catégories[1] :
-les appellations régionales, soit plus de la moitié de la production, provenant de l'ensemble du vignoble de Bourgogne ou d'une de ses sous-régions ; il y a sept AOC régionales (bourgogne[2], bourgogne-passe-tout-grains, etc.), auxquels on peut rajouter les quatorze dénominations géographiques de l'appellation bourgogne (bourgogne hautes-côtes-de-nuits, bourgogne tonnerre, etc.) et les 27 de l'appellation mâcon (mâcon Igé, mâcon Azé, etc.) ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Bourgogne se regroupent en quatre grandes catégories :
+les appellations régionales, soit plus de la moitié de la production, provenant de l'ensemble du vignoble de Bourgogne ou d'une de ses sous-régions ; il y a sept AOC régionales (bourgogne, bourgogne-passe-tout-grains, etc.), auxquels on peut rajouter les quatorze dénominations géographiques de l'appellation bourgogne (bourgogne hautes-côtes-de-nuits, bourgogne tonnerre, etc.) et les 27 de l'appellation mâcon (mâcon Igé, mâcon Azé, etc.) ;
 les appellations communales, soit un tiers de la production environ ; il y a 45 AOC communales, également appelées « appellations villages » (chablis, pommard, nuits-saint-georges, givry, etc.), en y comptant les deux AOC sous-régionales (côte-de-beaune-villages et mâcon) ;
 les dénominations premiers crus, soit 10 % de la production ; il s'agit de dénominations au sein des appellations communales ; le nom de cette AOC doit être suivie du nom d'un climat classé en premier cru ; il y a 562 climats en premier cru (saint-aubin premier cru « Murger des dents de chien », santenay premier cru « la Comme », chablis premier cru « Fourchaume », etc.) ;
 les appellations grands crus, soit 1,5 à 2 % de la production ; il y a 33 AOC grands crus, dont trente-deux en Côte-d'Or (bienvenues-bâtard-montrachet, corton-charlemagne, bonnes-mares, romanée-conti, etc.) et une dans l'Yonne (les sept climats de chablis-grand-cru).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Appellation_r%C3%A9gionale_(Bourgogne)</t>
+          <t>Appellation_régionale_(Bourgogne)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Liste des appellations régionales de Bourgogne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>bourgogne ;
 bourgogne aligoté ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Appellation_r%C3%A9gionale_(Bourgogne)</t>
+          <t>Appellation_régionale_(Bourgogne)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Liste des appellations sous-régionales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs guides des vins et sites classent les deux appellations ci-dessous parmi les appellations communales.
 côte-de-beaune-villages ;
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Appellation_r%C3%A9gionale_(Bourgogne)</t>
+          <t>Appellation_régionale_(Bourgogne)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Liste des dénominations de l'AOC bourgogne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>bourgogne-chitry ;
 bourgogne-côte-chalonnaise ;
